--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Katalon Studio\KatalonDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB22965-CF29-4014-A502-F6E9D7422266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A90B73-FCF7-484D-8122-D38DC8F62BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>InvalidPass</t>
-  </si>
-  <si>
-    <t>g3/DOGG74jC3Flrr3yH+3D/yKbOqqUNM</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>invalivdpass</t>
+  </si>
+  <si>
+    <t>hUKwJTbofgPU9eVlw/CnDQ==</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +381,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +389,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
